--- a/config_10.13/item_config.xlsx
+++ b/config_10.13/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="597">
   <si>
     <t>id|行号</t>
   </si>
@@ -2127,6 +2127,338 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>xycd_icon_ty2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xycd_sunshine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加2500福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加25000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cwlb_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_031_aster</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐活动掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_icon_xx2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>ty_icon_pms_3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2135,327 +2467,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>xycd_icon_ty2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xycd_sunshine</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加2500福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加25000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩礼包抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cwlb_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_031_aster</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆快乐活动掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_icon_xx2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_3</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cyj_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
+    <t>ty_icon_pms_3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3013,8 +3025,8 @@
   <dimension ref="A1:Q166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4172,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -5517,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -7280,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>467</v>
+        <v>592</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
@@ -7289,10 +7301,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -7315,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -7324,10 +7336,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -7350,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -7359,10 +7371,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -7394,10 +7406,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -7429,10 +7441,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -7455,7 +7467,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -7464,10 +7476,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -7490,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
@@ -7499,10 +7511,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -7534,10 +7546,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -7999,7 +8011,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D145" s="3">
         <v>-1</v>
@@ -8008,7 +8020,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -8017,10 +8029,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8031,7 +8043,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D146" s="23">
         <v>-1</v>
@@ -8040,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G146" s="23">
         <v>0</v>
@@ -8049,10 +8061,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J146" s="27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8063,7 +8075,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D147" s="23">
         <v>-1</v>
@@ -8072,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G147" s="23">
         <v>0</v>
@@ -8081,10 +8093,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J147" s="27" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8095,7 +8107,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D148" s="23">
         <v>-1</v>
@@ -8104,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G148" s="23">
         <v>0</v>
@@ -8113,10 +8125,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J148" s="27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8127,7 +8139,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D149" s="23">
         <v>-1</v>
@@ -8136,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G149" s="23">
         <v>0</v>
@@ -8145,10 +8157,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J149" s="27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8159,7 +8171,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D150" s="23">
         <v>-1</v>
@@ -8168,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G150" s="23">
         <v>0</v>
@@ -8177,10 +8189,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J150" s="27" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8191,7 +8203,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D151" s="23">
         <v>-1</v>
@@ -8200,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G151" s="23">
         <v>0</v>
@@ -8209,10 +8221,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="26" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J151" s="27" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8223,7 +8235,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D152" s="23">
         <v>-1</v>
@@ -8232,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G152" s="23">
         <v>0</v>
@@ -8241,10 +8253,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J152" s="27" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8255,7 +8267,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D153" s="23">
         <v>-1</v>
@@ -8264,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G153" s="23">
         <v>0</v>
@@ -8273,10 +8285,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J153" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8287,7 +8299,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D154" s="23">
         <v>-1</v>
@@ -8296,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G154" s="23">
         <v>0</v>
@@ -8305,10 +8317,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J154" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -8319,7 +8331,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D155" s="3">
         <v>-1</v>
@@ -8328,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G155" s="3">
         <v>0</v>
@@ -8340,7 +8352,7 @@
         <v>430</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8351,7 +8363,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D156" s="28">
         <v>-1</v>
@@ -8360,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G156" s="28">
         <v>0</v>
@@ -8369,10 +8381,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J156" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8383,7 +8395,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D157" s="23">
         <v>-1</v>
@@ -8392,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G157" s="23">
         <v>1</v>
@@ -8401,13 +8413,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J157" s="26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8418,7 +8430,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D158" s="23">
         <v>-1</v>
@@ -8427,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G158" s="23">
         <v>1</v>
@@ -8436,13 +8448,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J158" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8453,7 +8465,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D159" s="23">
         <v>-1</v>
@@ -8462,7 +8474,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G159" s="23">
         <v>1</v>
@@ -8471,13 +8483,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J159" s="26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8488,7 +8500,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D160" s="23">
         <v>-1</v>
@@ -8497,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G160" s="23">
         <v>1</v>
@@ -8506,10 +8518,10 @@
         <v>34</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J160" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8520,7 +8532,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D161" s="23">
         <v>-1</v>
@@ -8529,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G161" s="23">
         <v>1</v>
@@ -8538,10 +8550,10 @@
         <v>34</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J161" s="26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8552,7 +8564,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D162" s="23">
         <v>-1</v>
@@ -8561,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G162" s="23">
         <v>1</v>
@@ -8570,10 +8582,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J162" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8584,7 +8596,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D163" s="23">
         <v>-1</v>
@@ -8593,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G163" s="23">
         <v>1</v>
@@ -8602,10 +8614,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J163" s="26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8616,7 +8628,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D164" s="23">
         <v>-1</v>
@@ -8625,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G164" s="23">
         <v>1</v>
@@ -8634,10 +8646,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J164" s="26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8648,7 +8660,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D165" s="23">
         <v>-1</v>
@@ -8657,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G165" s="23">
         <v>1</v>
@@ -8666,10 +8678,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J165" s="26" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8680,7 +8692,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D166" s="34">
         <v>-1</v>
@@ -8689,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="38" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G166" s="34">
         <v>0</v>
@@ -8698,10 +8710,10 @@
         <v>33</v>
       </c>
       <c r="I166" s="37" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J166" s="37" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
